--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3208.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3208.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.107857419945009</v>
+        <v>1.62612783908844</v>
       </c>
       <c r="B1">
-        <v>3.033911640890154</v>
+        <v>2.142900943756104</v>
       </c>
       <c r="C1">
-        <v>6.618320957625865</v>
+        <v>2.315966129302979</v>
       </c>
       <c r="D1">
-        <v>2.418268532568703</v>
+        <v>2.965813636779785</v>
       </c>
       <c r="E1">
-        <v>1.453619647699629</v>
+        <v>2.083703279495239</v>
       </c>
     </row>
   </sheetData>
